--- a/Dummy_data4.xlsx
+++ b/Dummy_data4.xlsx
@@ -1,34 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\DBMS\DBMS Project\Main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6587FA27-6888-4084-BE6D-B6FBA0143FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Registration No.</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Father's Name</t>
+  </si>
+  <si>
+    <t>Parent / Guardian Contact No.</t>
+  </si>
+  <si>
+    <t>Previous School/ Instituion</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +91,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,79 +397,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15.08984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="13.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Registration No.</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Full Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date of Birth</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Nationality</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Contact Number</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Email Address</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date of Registration</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Father's Name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Parent / Guardian Contact No.</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Previous School/ Instituion</t>
-        </is>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Dummy_data4.xlsx
+++ b/Dummy_data4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\DBMS\DBMS Project\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6587FA27-6888-4084-BE6D-B6FBA0143FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F7EB9-2D07-4672-A020-0EF1D74EE391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Registration No.</t>
   </si>
@@ -31,31 +31,106 @@
     <t>Date of Birth</t>
   </si>
   <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Father's Name</t>
+  </si>
+  <si>
+    <t>Previous School/ Instituion</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Father's Name</t>
-  </si>
-  <si>
-    <t>Parent / Guardian Contact No.</t>
-  </si>
-  <si>
-    <t>Previous School/ Instituion</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>addd</t>
+  </si>
+  <si>
+    <t>papa</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>nsadnk</t>
+  </si>
+  <si>
+    <t>kjasds</t>
+  </si>
+  <si>
+    <t>naskdaskd</t>
+  </si>
+  <si>
+    <t>kakjdnasd</t>
+  </si>
+  <si>
+    <t>njksdsadb</t>
+  </si>
+  <si>
+    <t>hasdashd</t>
+  </si>
+  <si>
+    <t>badbabd</t>
+  </si>
+  <si>
+    <t>nkasdasad</t>
+  </si>
+  <si>
+    <t>name18</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>jasdnad</t>
+  </si>
+  <si>
+    <t>nasdnjad</t>
+  </si>
+  <si>
+    <t>jnakndajk</t>
+  </si>
+  <si>
+    <t>njaksndak</t>
+  </si>
+  <si>
+    <t>nasdkan</t>
+  </si>
+  <si>
+    <t>nasdnad</t>
+  </si>
+  <si>
+    <t>nasndand</t>
   </si>
 </sst>
 </file>
@@ -94,7 +169,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,28 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="15.08984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="13.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +518,133 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Dummy_data4.xlsx
+++ b/Dummy_data4.xlsx
@@ -1,154 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\DBMS\DBMS Project\Main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F7EB9-2D07-4672-A020-0EF1D74EE391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
-  <si>
-    <t>Registration No.</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Father's Name</t>
-  </si>
-  <si>
-    <t>Previous School/ Instituion</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>addd</t>
-  </si>
-  <si>
-    <t>papa</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>nsadnk</t>
-  </si>
-  <si>
-    <t>kjasds</t>
-  </si>
-  <si>
-    <t>naskdaskd</t>
-  </si>
-  <si>
-    <t>kakjdnasd</t>
-  </si>
-  <si>
-    <t>njksdsadb</t>
-  </si>
-  <si>
-    <t>hasdashd</t>
-  </si>
-  <si>
-    <t>badbabd</t>
-  </si>
-  <si>
-    <t>nkasdasad</t>
-  </si>
-  <si>
-    <t>name18</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>jasdnad</t>
-  </si>
-  <si>
-    <t>nasdnjad</t>
-  </si>
-  <si>
-    <t>jnakndajk</t>
-  </si>
-  <si>
-    <t>njaksndak</t>
-  </si>
-  <si>
-    <t>nasdkan</t>
-  </si>
-  <si>
-    <t>nasdnad</t>
-  </si>
-  <si>
-    <t>nasndand</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -167,24 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,179 +410,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col width="9.140625" customWidth="1" style="1" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Registration No.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Full Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Birth</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Email Address</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Previous School/ Instituion</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>addd</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>papa</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>addd</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>papa</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>nsadnk</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>kjasds</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>naskdaskd</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>kakjdnasd</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>njksdsadb</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>hasdashd</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>badbabd</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>nkasdasad</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>name18</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>dob</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>jasdnad</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>nasdnjad</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>jnakndajk</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>njaksndak</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>nasdkan</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>nasdnad</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>nasndand</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hgsadghasdgv</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hasdghasd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gfasfda</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>gfGFGFS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>tf</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>tft</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>fdfa</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ftQSTFT</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TFTSFTFSF</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asasdnkj</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jDHUh</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bajdub</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>basbauys</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>bausd</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>qjbaud</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>qgqugduq</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>adwqwqd</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>yqy</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>36</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dfsf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>yayfdy</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ytfwfy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>gcjhs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>hd</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>vgasdv</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>huwgd</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>hygfd</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>vytdf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Dummy_data4.xlsx
+++ b/Dummy_data4.xlsx
@@ -415,15 +415,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.140625" customWidth="1" style="1" min="1" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="1" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -838,6 +839,162 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>vytdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sfsfjg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fyaydfy</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>qu tstd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>qauyu7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>qgsdiuf7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>gufs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>hhagu</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>gasdgua</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>gahsdg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>xzxzc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ssf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sdfs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>avsdhv</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>whadh</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>vavdy</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>qvad</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>yqgdqv</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>vahgvdavd</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adahgdv</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jGSUY</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GAUD</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>UYF</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>UYQ</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>GUWUYGD</t>
         </is>
       </c>
     </row>

--- a/Dummy_data4.xlsx
+++ b/Dummy_data4.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
@@ -998,6 +998,58 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>addd</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>papa</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
